--- a/_site/Data/FollowUpCoreCC.xlsx
+++ b/_site/Data/FollowUpCoreCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="210">
   <si>
     <t>Domain</t>
   </si>
@@ -685,16 +685,271 @@
  If you select yes, you will receive up to 2 text messages per survey invitation. One initial invitation and one reminder. Msg &amp; Data rates may apply. 
 </t>
   </si>
+  <si>
+    <t>ECONOMIC STABILITY (non childcare) MODULE</t>
+  </si>
+  <si>
+    <t>How do you feel about your current housing situation? Do you feel…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very stable and secure  
+• Fairly stable
+• Just somewhat stable  
+• Fairly unstable  
+• Very unstable  
+</t>
+  </si>
+  <si>
+    <t>How do you feel about your current employment situation? Do you feel it is…</t>
+  </si>
+  <si>
+    <t>How do you feel about your current work schedule? Do you feel it is…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very predictable
+• Fairly predictable
+• Just somewhat predictable
+• Fairly predictable
+• Very predictable
+</t>
+  </si>
+  <si>
+    <t>If you use childcare for your own child(ren), how do you feel about your current childcare situation? Do you feel it is…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very stable and secure  
+• Fairly stable
+• Just somewhat stable  
+• Fairly unstable  
+• Very unstable  
+• I do not use childcare for my own child(ren)  
+</t>
+  </si>
+  <si>
+    <t>DEBT AND UNPAID BILLS (non-childcare) MODULE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you currently have overdue bills and/or debt? 
+By this we mean rent, mortgage, utility, medical, student loan, credit card, or other bills that are past due. Please also consider money you have borrowed from family or friends that you need to repay. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How much do you owe for each of the following that is past due or unpaid?  
+ If you do not know the exact amount, please do you best to estimate to the nearest $1,000.  If you do not have any debt in the category, please enter a 0.
+</t>
+  </si>
+  <si>
+    <t>• Rent (past due)  [text entry]
+• Mortgage payments (past due) [text entry]
+•   Medical bills (past due) [text entry]  
+•   Utility bills (past due) [text entry]  
+•  Credit card balances [text entry]  
+• Student loan balances [text entry]  
+• Loans from family or friends  [text entry]
+• Other unpaid bills  [text entry]</t>
+  </si>
+  <si>
+    <t>Have you used any of the following to reduce your debt in the last month? (select all that apply):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Tax refund  
+• Stimulus payment  
+• Housing assistance  
+• Utility assistance  
+• Employment income  
+• Loans from family or friends  
+• Other (please specify):  [text entry]
+• Not applicable  </t>
+  </si>
+  <si>
+    <t>How does the amount of debt you have now compare to the amount of debt you had in February 2020 (before the pandemic)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Much lower  
+• Slightly lower  
+• About the same   
+• Slightly higher    
+• Much higher  
+</t>
+  </si>
+  <si>
+    <t>When you don’t have enough money to pay all your bills, how do you decide which bills to pay?</t>
+  </si>
+  <si>
+    <t>[Free response]</t>
+  </si>
+  <si>
+    <t>What would you like your policymakers to know about your debt, including the debt you’ve accrued during the pandemic?</t>
+  </si>
+  <si>
+    <t>CHILD TAX CREDIT MODULE</t>
+  </si>
+  <si>
+    <t>Did your household file federal income taxes in the last two years?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• Unsure
+• I'd rather not say</t>
+  </si>
+  <si>
+    <t>Do you know how to access the IRS portal beginning July 1, 2021?</t>
+  </si>
+  <si>
+    <t>Do you have someone who can help you access the IRS portal beginning July 1, 2021?</t>
+  </si>
+  <si>
+    <t>Do you expect to receive the Child Tax Credit?</t>
+  </si>
+  <si>
+    <t>• Yes, I expect to receive it automatically because I filed my tax returns in the last 2 years  
+• Yes, I expect to receive it because I will sign up on the IRS portal  
+• No  
+• Unsure</t>
+  </si>
+  <si>
+    <t>If no, why don't you expect to receive it?</t>
+  </si>
+  <si>
+    <t>[Free Response]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Basic needs (by this we mean food, rent, mortgage, utilities, and telecommunications) </t>
+  </si>
+  <si>
+    <t>• All
+• Most
+• Some
+• A little
+• None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Unpaid bills accrued during the pandemic </t>
+  </si>
+  <si>
+    <t>How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other essentials (this could include vehicle payments, paying down credit card(s), student loans, or other debts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Recreational activities (examples: vacation, summer camp) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Savings or other investments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Household items (e.g., books, computers, etc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you plan to use the $300/month per child age 0-5 and $250/month per child 6-17 from the Child Tax Credit? Other (please specify) </t>
+  </si>
+  <si>
+    <t>How would receiving the $250 or $300 monthly payment for each child in your family for the next six months affect you and your family?</t>
+  </si>
+  <si>
+    <t>How did you learn about the Child Tax Credit? Select all that apply.</t>
+  </si>
+  <si>
+    <t>• A friend or family member  
+• The news  
+• Social media  
+• A community-based organization  
+• A teacher, counselor, or other service provider  
+• I did not know about the Child Tax Credit before this survey  
+• Other, please specify: [text entry]</t>
+  </si>
+  <si>
+    <t>Please select the answer that best represents your understanding of the Child Tax Credit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The Child Tax Credit is temporary  
+• The Child Tax Credit is permanent for parents of children 17 and under  
+• The Child Tax Credit is potentially permanent for parents of children 17 and under  
+</t>
+  </si>
+  <si>
+    <t>WORK SCHEDULE (childcare) MODULE</t>
+  </si>
+  <si>
+    <t>Do you currently get paid to provide childcare?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On average, how many hours per week do you work for pay as a childcare provider? </t>
+  </si>
+  <si>
+    <t>[Single Select Less than 5 hours to More than 60 hours]</t>
+  </si>
+  <si>
+    <t>What is your hourly pay rate as a childcare provider? Please do not include any dollar signs or commas in your response.</t>
+  </si>
+  <si>
+    <t>In a typical week, which days do you work at your childcare job(s)?</t>
+  </si>
+  <si>
+    <t>• Monday 
+• Tuesday
+• Wednesday 
+• Thursday
+• Friday
+• Saturday
+• Sunday
+• My schedule is unpredictable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What does your typical weekly work schedule as a paid childcare provider look like? Please select all the apply. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I work weekdays in the mornings  
+• I work weekdays in the afternoon  
+• I work weekdays in the evenings  
+• I work weekends in the mornings  
+• I work weekends in the afternoon  
+• I work weekends in the evenings  
+• My schedule is unpredictable  
+</t>
+  </si>
+  <si>
+    <t>In the last 30 days you worked, did your childcare job schedule change from week to week?</t>
+  </si>
+  <si>
+    <t>How far in advance do you usually know what days and hours you will need to work at your childcare job?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• One day or less in advance  
+• 2-3 days in advance  
+• 4-7 days in advance  
+• 1-2 weeks in advance  
+• More than 2 weeks in advance  
+• I set my own schedule  
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -711,42 +966,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -766,32 +991,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -804,64 +1003,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -897,74 +1044,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -987,77 +1067,7 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1066,8 +1076,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1077,156 +1122,68 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2387,1276 +2344,1642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1048574"/>
+  <dimension ref="A1:F1048570"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="56.625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="46.5" style="16" customWidth="1"/>
-    <col min="4" max="5" width="19.875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="10.875" style="16"/>
+    <col min="1" max="1" width="25.625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="56.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="46.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="393" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="153" customHeight="1">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="120" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5" ht="120" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="120" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="153" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
     </row>
     <row r="9" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
     </row>
     <row r="10" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" spans="1:5" ht="135.94999999999999" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" ht="31.5">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" ht="103.5" customHeight="1">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" ht="102.75" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="186.95" customHeight="1">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="120" customHeight="1">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5" ht="33.950000000000003" customHeight="1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5" ht="117" customHeight="1">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" ht="119.1" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" spans="1:5" ht="102" customHeight="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="206.25" customHeight="1">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="102" customHeight="1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="132.75" customHeight="1">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="272.10000000000002" customHeight="1">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
     </row>
     <row r="32" spans="1:5" ht="84.95" customHeight="1">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="94.5">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5" ht="82.5" customHeight="1">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
     </row>
     <row r="35" spans="1:5" ht="135.94999999999999" customHeight="1">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
     </row>
     <row r="36" spans="1:5" ht="135.94999999999999" customHeight="1">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5" ht="153" customHeight="1">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" ht="255" customHeight="1">
-      <c r="A38" s="48" t="s">
+      <c r="A38" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" ht="249.75" customHeight="1">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" ht="78.75">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
     </row>
     <row r="41" spans="1:5" ht="78.75">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
     </row>
     <row r="42" spans="1:5" ht="47.25">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" ht="69" customHeight="1">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:5" ht="49.5" customHeight="1">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="2"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
     </row>
     <row r="46" spans="1:5" ht="78.75">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="2"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
     </row>
     <row r="47" spans="1:5" ht="83.25" customHeight="1">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="17"/>
     </row>
     <row r="48" spans="1:5" ht="46.5" customHeight="1">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="2"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="17"/>
     </row>
     <row r="49" spans="1:5" ht="78.75">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="2"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="17"/>
     </row>
     <row r="50" spans="1:5" ht="47.25">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="17"/>
     </row>
     <row r="51" spans="1:5" ht="47.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17"/>
     </row>
     <row r="52" spans="1:5" ht="47.25">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17"/>
     </row>
     <row r="53" spans="1:5" ht="47.25">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17"/>
     </row>
     <row r="54" spans="1:5" ht="47.25">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="17"/>
     </row>
     <row r="55" spans="1:5" ht="47.25">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="17"/>
     </row>
     <row r="56" spans="1:5" ht="47.25">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" ht="47.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="17"/>
     </row>
     <row r="58" spans="1:5" ht="110.25">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17"/>
     </row>
     <row r="59" spans="1:5" ht="110.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:5" ht="110.25">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="2"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17"/>
     </row>
     <row r="61" spans="1:5" ht="47.25">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="17"/>
     </row>
     <row r="62" spans="1:5" ht="110.25">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="17"/>
     </row>
     <row r="63" spans="1:5" ht="47.25">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="2"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="17"/>
     </row>
     <row r="64" spans="1:5" ht="110.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="2"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="17"/>
     </row>
     <row r="65" spans="1:5" ht="110.25">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="11"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="17"/>
     </row>
     <row r="66" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="35"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A67" s="32" t="s">
+      <c r="A67" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="13"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A68" s="32" t="s">
+      <c r="A68" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="50"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A69" s="32" t="s">
+      <c r="A69" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A70" s="32" t="s">
+      <c r="A70" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A71" s="32" t="s">
+      <c r="A71" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="48.75" customHeight="1">
-      <c r="A72" s="32" t="s">
+      <c r="A72" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="52" t="s">
+      <c r="C72" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" ht="237.75" customHeight="1">
-      <c r="A73" s="32" t="s">
+      <c r="A73" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="57"/>
-      <c r="E73" s="56"/>
     </row>
     <row r="74" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A74" s="32" t="s">
+      <c r="A74" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="53" t="s">
+      <c r="C74" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D74" s="57"/>
-      <c r="E74" s="56"/>
     </row>
     <row r="75" spans="1:5" ht="63.75" customHeight="1">
-      <c r="A75" s="33" t="s">
+      <c r="A75" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="16" t="s">
         <v>123</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D75" s="57"/>
-      <c r="E75" s="56"/>
     </row>
     <row r="76" spans="1:5" ht="80.25" customHeight="1">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D76" s="57"/>
-      <c r="E76" s="56"/>
     </row>
     <row r="77" spans="1:5" ht="96" customHeight="1">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D77" s="57"/>
-      <c r="E77" s="56"/>
     </row>
     <row r="78" spans="1:5" ht="75.75" customHeight="1">
-      <c r="A78" s="36" t="s">
+      <c r="A78" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="16" t="s">
         <v>129</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="56"/>
     </row>
     <row r="79" spans="1:5" ht="66" customHeight="1">
-      <c r="A79" s="36" t="s">
+      <c r="A79" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D79" s="59"/>
-      <c r="E79" s="56"/>
     </row>
     <row r="80" spans="1:5" ht="63" customHeight="1">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B80" s="45" t="s">
+      <c r="B80" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C80" s="54" t="s">
+      <c r="C80" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D80" s="57"/>
-      <c r="E80" s="56"/>
     </row>
     <row r="81" spans="1:5" ht="79.5" customHeight="1">
-      <c r="A81" s="36" t="s">
+      <c r="A81" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B81" s="46" t="s">
+      <c r="B81" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C81" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="56"/>
     </row>
     <row r="82" spans="1:5" ht="79.5" customHeight="1">
-      <c r="A82" s="36" t="s">
+      <c r="A82" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="56"/>
     </row>
     <row r="83" spans="1:5" ht="63" customHeight="1">
-      <c r="A83" s="36" t="s">
+      <c r="A83" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="56"/>
     </row>
     <row r="84" spans="1:5" ht="113.25" customHeight="1">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B84" s="37" t="s">
+      <c r="B84" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="59"/>
-      <c r="E84" s="56"/>
     </row>
     <row r="85" spans="1:5" ht="108" customHeight="1">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D85" s="57"/>
-      <c r="E85" s="38"/>
     </row>
     <row r="86" spans="1:5" ht="109.5" customHeight="1">
-      <c r="A86" s="36" t="s">
+      <c r="A86" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D86" s="57"/>
-      <c r="E86" s="34"/>
     </row>
     <row r="87" spans="1:5" ht="113.25" customHeight="1">
-      <c r="A87" s="36" t="s">
+      <c r="A87" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D87" s="57"/>
-      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" ht="120.75" customHeight="1">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="56"/>
     </row>
     <row r="89" spans="1:5" ht="114" customHeight="1">
-      <c r="A89" s="36" t="s">
+      <c r="A89" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D89" s="57"/>
-      <c r="E89" s="56"/>
     </row>
     <row r="90" spans="1:5" ht="50.25" customHeight="1">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="B90" s="41" t="s">
+      <c r="B90" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C90" s="57" t="s">
+      <c r="C90" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D90" s="57"/>
-      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="C91" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D91" s="57"/>
-      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" ht="33" customHeight="1">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B92" s="37" t="s">
+      <c r="B92" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D92" s="57"/>
-      <c r="E92" s="56"/>
     </row>
     <row r="93" spans="1:5" ht="64.5" customHeight="1">
-      <c r="A93" s="33" t="s">
+      <c r="A93" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B93" s="37" t="s">
+      <c r="B93" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="C93" s="57" t="s">
+      <c r="C93" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D93" s="57"/>
-      <c r="E93" s="56"/>
     </row>
     <row r="94" spans="1:5" ht="15.95" customHeight="1">
-      <c r="A94" s="33" t="s">
+      <c r="A94" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="B94" s="37" t="s">
+      <c r="B94" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="C94" s="57" t="s">
+      <c r="C94" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D94" s="57"/>
-      <c r="E94" s="56"/>
     </row>
     <row r="95" spans="1:5" ht="78.75" customHeight="1">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="B95" s="37" t="s">
+      <c r="B95" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D95" s="57"/>
-      <c r="E95" s="56"/>
     </row>
     <row r="96" spans="1:5" ht="39" customHeight="1">
-      <c r="A96" s="39" t="s">
+      <c r="A96" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="37" t="s">
+      <c r="B96" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="C96" s="58" t="s">
+      <c r="C96" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="56"/>
-    </row>
-    <row r="1048574" spans="1:1" ht="15.95" customHeight="1">
-      <c r="A1048574" s="17"/>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:6" ht="89.25" customHeight="1">
+      <c r="A97" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="35"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="13"/>
+    </row>
+    <row r="98" spans="1:6" ht="81" customHeight="1">
+      <c r="A98" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="13"/>
+    </row>
+    <row r="99" spans="1:6" ht="90.75" customHeight="1">
+      <c r="A99" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D99" s="35"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="13"/>
+    </row>
+    <row r="100" spans="1:6" ht="82.5" customHeight="1">
+      <c r="A100" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D100" s="35"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="13"/>
+    </row>
+    <row r="101" spans="1:6" ht="116.25" customHeight="1">
+      <c r="A101" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="1:6" ht="167.25" customHeight="1">
+      <c r="A102" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C102" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E102" s="36"/>
+    </row>
+    <row r="103" spans="1:6" ht="171" customHeight="1">
+      <c r="A103" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="9"/>
+    </row>
+    <row r="104" spans="1:6" ht="115.5" customHeight="1">
+      <c r="A104" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="80.25" customHeight="1">
+      <c r="A105" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A106" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A107" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" ht="111.75" customHeight="1">
+      <c r="A108" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="13"/>
+    </row>
+    <row r="109" spans="1:6" ht="48.75" customHeight="1">
+      <c r="A109" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="13"/>
+    </row>
+    <row r="110" spans="1:6" ht="84.75" customHeight="1">
+      <c r="A110" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A111" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="13"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A112" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A113" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A114" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="13"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A115" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="13"/>
+    </row>
+    <row r="116" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A116" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" s="10"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="13"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A117" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D117" s="10"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="13"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A118" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" s="10"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="13"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A119" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B119" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="14"/>
+    </row>
+    <row r="120" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A120" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B120" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C120" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="14"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A121" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B121" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="14"/>
+    </row>
+    <row r="122" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A122" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A123" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A124" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A125" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A126" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A127" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B127" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.95" customHeight="1">
+      <c r="A128" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="1048570" spans="1:1" ht="15.95" customHeight="1">
+      <c r="A1048570" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_site/Data/FollowUpCoreCC.xlsx
+++ b/_site/Data/FollowUpCoreCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -16,6 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -35,6 +46,12 @@
   </si>
   <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>DEMO (Childcare)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply.                                                                                    </t>
   </si>
   <si>
     <t>• I am a teacher in a licensed school/center-based childcare program  
@@ -47,6 +64,31 @@
 • Other (please specify)  [text entry]</t>
   </si>
   <si>
+    <t>RAPID Modified from Child Care Aware of America</t>
+  </si>
+  <si>
+    <t>https://www.childcareaware.org/families/types-child-care/</t>
+  </si>
+  <si>
+    <t>[Display this question if "You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply." =  I am a director/administrator of a licensed school/center-based childcare program]          Do you spend time in the classroom(s) providing direct care to children in the program?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No</t>
+  </si>
+  <si>
+    <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>[Display this question if " Do you spend time in the classroom(s) providing direct care to children in the program?" = Yes] In an average week, how many hours do you spend in the classroom(s) providing direct care to children in the program?</t>
+  </si>
+  <si>
+    <t>[Single Select from &lt;5 hours per week to More than 60 hours per week]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMO (Childcare)  </t>
+  </si>
+  <si>
     <t>If you provide childcare for a family member, friend, or neighbor, what is your relationship with the parents/guardians of the children in your care? Select all that apply. </t>
   </si>
   <si>
@@ -110,6 +152,9 @@
     <t>What is the age of the oldest child you care for between the ages of 0-5? </t>
   </si>
   <si>
+    <t xml:space="preserve">CHILDCARE EXPERIENCES  </t>
+  </si>
+  <si>
     <t>In the past week, how often do you talk with a parent about something happening in the child’s family (for example child-parent relationships, stresses like parent’s finances and employment; family tensions)</t>
   </si>
   <si>
@@ -121,6 +166,9 @@
 • Not applicable</t>
   </si>
   <si>
+    <t>RAPID Team Modified from National Survey of Early Care and Education (NSECE) 2012 (Page 109 of NSECE User Guide)</t>
+  </si>
+  <si>
     <t xml:space="preserve">In the past week, how do you feel about the following statement: 
  “There were major sources of stress in the children’s lives that I couldn’t do anything about"
 </t>
@@ -144,6 +192,9 @@
 </t>
   </si>
   <si>
+    <t>Developed by ther RAPID Team based on the Packard Foundation's Essential Practices for Home-Based Caregivers and Proviers</t>
+  </si>
+  <si>
     <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                           I read to the child/ren  </t>
   </si>
   <si>
@@ -160,11 +211,37 @@
   </si>
   <si>
     <t xml:space="preserve">How often do you engage in the following activities as a childcare provider?                                                                                                           I engage in a back-and-forth exchange with the child/ren's verbal and nonverbal communication  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME AND EMPLOYMENT (non-childcare)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To the best of your knowledge, what was your gross (before taxes) household income from all sources, including from providing childcare, currently? 
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. 
+</t>
   </si>
   <si>
     <t>• Weekly [Free Text]
 • Or Monthly [Free Text]
 • Or Yearly [Free Text]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/income/#:~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need.</t>
+    </r>
+  </si>
+  <si>
+    <t>How many people were being supported by your total household income currently?</t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following best describes your current employment status? </t>
@@ -188,6 +265,9 @@
 • Stay-at-home parent (not seeking employment)  
 • Other (please specify) [text entry]
 •Not applicable</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from U.S. Census </t>
   </si>
   <si>
     <t>Are you receiving any sort of public or employment benefits?
@@ -217,6 +297,15 @@
 • Other, please desceribe [Free Text]</t>
   </si>
   <si>
+    <t>RAPID Team Modified from Economic Harship Questionnaire</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/1131068?seq=12#metadata_info_tab_contents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCOME AND EMPLOYMENT (childcare)  </t>
+  </si>
+  <si>
     <t xml:space="preserve">Currently, is your childcare provider employment/business your primary source of income? </t>
   </si>
   <si>
@@ -252,6 +341,9 @@
 • Unsure</t>
   </si>
   <si>
+    <t>RAPID Team Modified from National Compensation Survey</t>
+  </si>
+  <si>
     <t>How likely is it that you would lose your job providing childcare or your childcare business if you were required to take at least 2 weeks of sick leave?</t>
   </si>
   <si>
@@ -263,6 +355,9 @@
 • Not applicable</t>
   </si>
   <si>
+    <t xml:space="preserve">EHQ (non-childcare)  </t>
+  </si>
+  <si>
     <t>Which of the following best described what has happened to your household income during the coronavirus (COVID-19) pandemic?</t>
   </si>
   <si>
@@ -282,6 +377,12 @@
 • Major problems
 • Extreme problems
 </t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from IOM Financial Strain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSTR (non-childcare)  </t>
   </si>
   <si>
     <t>In the past month, how hard has it been for you to pay for the very basics like food, housing, medical care, and heating? Would you say…</t>
@@ -337,191 +438,6 @@
 • Other </t>
   </si>
   <si>
-    <t>Free response</t>
-  </si>
-  <si>
-    <t>Are you covered by any kind of health insurance or some other kind of health care plan?</t>
-  </si>
-  <si>
-    <t>• Yes
-• No
-• I don't know</t>
-  </si>
-  <si>
-    <t>What type of health insurance or health care coverage do you have?</t>
-  </si>
-  <si>
-    <t>•  Insurance through a current or former employer or union (by you or another family member)
-•  Insurance purchased from an insurance company (by you or another family member)
-•  Medicare, for people 65 and older, or people with certain disabilities
-•  Medicaid, Medical Assistance, or any kind of government-assistance plan for those with low incomes or a disability
-•  TRICARE or other military healthcare
-•  VA (enrolled for VA healthcare)
-•  Indian Health Service
-•  Any other type of health insurance or health coverage plan (Please Describe) [Free Text]
-•  I don't know</t>
-  </si>
-  <si>
-    <t>At any time in the last month, did you DELAY getting medical care (including physical or mental health visits)?</t>
-  </si>
-  <si>
-    <t>Have you been suspected or diagnosed with coronavirus (COVID-19)?</t>
-  </si>
-  <si>
-    <t>• Yes, suspected
-• Yes, diagnosed with a positive test result
-• Yes, diagnosed by a healthcare professional or public health official without a test
-• No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you personally know anyone in the U.S. who...                               Has been officially diagnosed as having COVID-19 by a health care provider </t>
-  </si>
-  <si>
-    <t>• Yes
-• No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you personally know anyone in the U.S. who...                              Has been hospitalized or died as a result of having COVID-19 </t>
-  </si>
-  <si>
-    <t>In the past week, how often have you been bothered by the following problems?
-Feeling nervous, anxious, or on edge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Not at all
-• Several days
-• More than half of the days
-• Nearly every day </t>
-  </si>
-  <si>
-    <t>In the past week, how often have you been bothered by the following problems?
-Not being able to stop or control worrying</t>
-  </si>
-  <si>
-    <t>In the past week, how often have you been bothered by the following problems?
-Little interest or pleasure in doing things</t>
-  </si>
-  <si>
-    <t>In the past week, how often have you been bothered by the following problems?
-Feeling down, depressed, or hopeless</t>
-  </si>
-  <si>
-    <t>Stress means a situation in which a person feels tense, restless, nervous or anxious or is unable to sleep at night because his/her mind is troubled all the time. Have you felt this kind of stress in the past week?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">• 1 - Not at all 
-• 2 - Only a little
-• 3 - To some extent
-• 4 - Rather much
-• 5 - Very much </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began, please describe how often…I feel lonely </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• Never
-• Rarely
-• Sometimes
-• Usually 
-• Always </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel…So sad that nothing could cheer you up? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">• none of the time
-• a little of the time
-• some of the time
-• most of the time
-• all of the time
-• don't know
-</t>
-  </si>
-  <si>
-    <t>We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Nervous?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Restless or fidgety? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Hopeless? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… That everything was an effort? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Worthless? </t>
-  </si>
-  <si>
-    <t>What are the biggest challenges and concerns for you and your family right now?</t>
-  </si>
-  <si>
-    <t>What are the biggest challenges and concerns for you as a childcare provider right now?</t>
-  </si>
-  <si>
-    <t>What/who is helping you as a childcare provider the most right now?</t>
-  </si>
-  <si>
-    <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how you are doing or what you need as a childcare provider during this time?</t>
-  </si>
-  <si>
-    <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information!</t>
-  </si>
-  <si>
-    <t>DEMO (Childcare)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEMO (Childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILDCARE EXPERIENCES  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCOME AND EMPLOYMENT (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCOME AND EMPLOYMENT (childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EHQ (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FSTR (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HEALTH (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">COVID (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENTAL HEALTH/WELLBEING (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN ENDED (non-childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEN ENDED (childcare)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply.                                                                                    </t>
-  </si>
-  <si>
-    <t>Developed by RAPID Team</t>
-  </si>
-  <si>
-    <t>Developed by ther RAPID Team based on the Packard Foundation's Essential Practices for Home-Based Caregivers and Proviers</t>
-  </si>
-  <si>
-    <t>RAPID Team Modified from National Survey of Early Care and Education (NSECE) 2012 (Page 109 of NSECE User Guide)</t>
-  </si>
-  <si>
-    <t>RAPID Team Modified from Economic Harship Questionnaire</t>
-  </si>
-  <si>
-    <t>RAPID Team Modified from IOM Financial Strain</t>
-  </si>
-  <si>
     <t xml:space="preserve">ALP survey conducted May 1-6, 2020 
 </t>
   </si>
@@ -538,7 +454,65 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">HEALTH (non-childcare)  </t>
+  </si>
+  <si>
+    <t>Are you covered by any kind of health insurance or some other kind of health care plan?</t>
+  </si>
+  <si>
+    <t>• Yes
+• No
+• I don't know</t>
+  </si>
+  <si>
+    <t>RAPID Team Modified from NHIS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>https://www.cdc.gov/nchs/nhis/health_insurance/hi_content.htm</t>
+    </r>
+  </si>
+  <si>
+    <t>What type of health insurance or health care coverage do you have?</t>
+  </si>
+  <si>
+    <t>•  Insurance through a current or former employer or union (by you or another family member)
+•  Insurance purchased from an insurance company (by you or another family member)
+•  Medicare, for people 65 and older, or people with certain disabilities
+•  Medicaid, Medical Assistance, or any kind of government-assistance plan for those with low incomes or a disability
+•  TRICARE or other military healthcare
+•  VA (enrolled for VA healthcare)
+•  Indian Health Service
+•  Any other type of health insurance or health coverage plan (Please Describe) [Free Text]
+•  I don't know</t>
+  </si>
+  <si>
+    <t>At any time in the last month, did you DELAY getting medical care (including physical or mental health visits)?</t>
+  </si>
+  <si>
     <t>RAPID Team Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVID (non-childcare)  </t>
+  </si>
+  <si>
+    <t>Have you been suspected or diagnosed with coronavirus (COVID-19)?</t>
+  </si>
+  <si>
+    <t>• Yes, suspected
+• Yes, diagnosed with a positive test result
+• Yes, diagnosed by a healthcare professional or public health official without a test
+• No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you personally know anyone in the U.S. who...                               Has been officially diagnosed as having COVID-19 by a health care provider </t>
   </si>
   <si>
     <r>
@@ -553,6 +527,22 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Do you personally know anyone in the U.S. who...                              Has been hospitalized or died as a result of having COVID-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MENTAL HEALTH/WELLBEING (non-childcare)  </t>
+  </si>
+  <si>
+    <t>In the past week, how often have you been bothered by the following problems?
+Feeling nervous, anxious, or on edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Not at all
+• Several days
+• More than half of the days
+• Nearly every day </t>
+  </si>
+  <si>
     <t>RAPID Team  Modified
 GAD-2</t>
   </si>
@@ -569,6 +559,14 @@
     </r>
   </si>
   <si>
+    <t>In the past week, how often have you been bothered by the following problems?
+Not being able to stop or control worrying</t>
+  </si>
+  <si>
+    <t>In the past week, how often have you been bothered by the following problems?
+Little interest or pleasure in doing things</t>
+  </si>
+  <si>
     <t>RAPID Team Modified
 PHQ-2</t>
   </si>
@@ -585,6 +583,20 @@
     </r>
   </si>
   <si>
+    <t>In the past week, how often have you been bothered by the following problems?
+Feeling down, depressed, or hopeless</t>
+  </si>
+  <si>
+    <t>Stress means a situation in which a person feels tense, restless, nervous or anxious or is unable to sleep at night because his/her mind is troubled all the time. Have you felt this kind of stress in the past week?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 1 - Not at all 
+• 2 - Only a little
+• 3 - To some extent
+• 4 - Rather much
+• 5 - Very much </t>
+  </si>
+  <si>
     <t>RAPID Team Modified from single item Stress measure</t>
   </si>
   <si>
@@ -600,6 +612,16 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic began, please describe how often…I feel lonely </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Never
+• Rarely
+• Sometimes
+• Usually 
+• Always </t>
+  </si>
+  <si>
     <t>NIH Toolbox Item Bank v2.0</t>
   </si>
   <si>
@@ -615,69 +637,67 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel…So sad that nothing could cheer you up? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• none of the time
+• a little of the time
+• some of the time
+• most of the time
+• all of the time
+• don't know
+</t>
+  </si>
+  <si>
     <t>RAPID Team Modified from National Survey of Early Care and Education (NSECE) 2012 (Page 111 of NSECE User Guide)</t>
   </si>
   <si>
-    <t>RAPID Team Modified from NHIS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.cdc.gov/nchs/nhis/health_insurance/hi_content.htm</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">RAPID Team Modified from U.S. Census </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>https://www.census.gov/acs/www/about/why-we-ask-each-question/income/#:~:text=We%20ask%20questions%20about%20the,assistance%20for%20populations%20in%20need.</t>
-    </r>
-  </si>
-  <si>
-    <t>RAPID Team Modified from U.S. Census </t>
-  </si>
-  <si>
-    <t>https://www.jstor.org/stable/1131068?seq=12#metadata_info_tab_contents </t>
-  </si>
-  <si>
-    <t>RAPID Team Modified from National Compensation Survey</t>
-  </si>
-  <si>
-    <t>RAPID Modified from Child Care Aware of America</t>
-  </si>
-  <si>
-    <t>https://www.childcareaware.org/families/types-child-care/</t>
-  </si>
-  <si>
-    <t>[Display this question if "You have received this survey because you currently care for one or more children. What best describes your role as a childcare provider? Select all that apply." =  I am a director/administrator of a licensed school/center-based childcare program]          Do you spend time in the classroom(s) providing direct care to children in the program?</t>
-  </si>
-  <si>
-    <t>[Single Select from &lt;5 hours per week to More than 60 hours per week]</t>
-  </si>
-  <si>
-    <t>[Display this question if " Do you spend time in the classroom(s) providing direct care to children in the program?" = Yes] In an average week, how many hours do you spend in the classroom(s) providing direct care to children in the program?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To the best of your knowledge, what was your gross (before taxes) household income from all sources, including from providing childcare, currently? 
-You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these. 
-</t>
-  </si>
-  <si>
-    <t>How many people were being supported by your total household income currently?</t>
+    <t>We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Nervous?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Restless or fidgety? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Hopeless? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… That everything was an effort? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We’d like to know how people taking care of children feel about life. In the last 30 days, how often did you feel… Worthless? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN ENDED (non-childcare)  </t>
+  </si>
+  <si>
+    <t>What are the biggest challenges and concerns for you and your family right now?</t>
+  </si>
+  <si>
+    <t>Free response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN ENDED (childcare)  </t>
+  </si>
+  <si>
+    <t>What are the biggest challenges and concerns for you as a childcare provider right now?</t>
+  </si>
+  <si>
+    <t>What/who is helping you as a childcare provider the most right now?</t>
+  </si>
+  <si>
+    <t>What would you like your elected officials or other policymakers (for example, U.S. Congress, state and local leaders) to know about how you are doing or what you need as a childcare provider during this time?</t>
+  </si>
+  <si>
+    <t>OPEN ENDED (Childcare)</t>
+  </si>
+  <si>
+    <t>What do you want federal and/or state officials that oversee funding for child care providers to know?</t>
+  </si>
+  <si>
+    <t>[text entry]</t>
+  </si>
+  <si>
+    <t>Is it okay to share your comments in our research communications? We will not use your name or any other identifiable information!</t>
   </si>
   <si>
     <t>Survey Experience</t>
@@ -690,22 +710,13 @@
 •Bad 
 •Somewhat good
 •Very good</t>
-  </si>
-  <si>
-    <t>OPEN ENDED (Childcare)</t>
-  </si>
-  <si>
-    <t>What do you want federal and/or state officials that oversee funding for child care providers to know?</t>
-  </si>
-  <si>
-    <t>[text entry]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2142,17 +2153,17 @@
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="56.625" style="16" customWidth="1"/>
     <col min="3" max="3" width="46.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="19.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="4"/>
+    <col min="4" max="5" width="19.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2169,998 +2180,998 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="393" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="393" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="393" customHeight="1">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="393" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>98</v>
-      </c>
       <c r="B3" s="19" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:6" s="37" customFormat="1" ht="259.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="37" customFormat="1" ht="259.5" customHeight="1">
       <c r="A4" s="38" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="36"/>
     </row>
-    <row r="5" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="153" customHeight="1">
       <c r="A5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="120" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="120" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="120" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="84.95" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="153" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="33.950000000000003" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="84.95" customHeight="1">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="135.94999999999999" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="33.950000000000003">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="84.95" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="103.5" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" ht="102.75" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" ht="186.95" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="120" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33.950000000000003" customHeight="1">
+      <c r="A26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" ht="117" customHeight="1">
+      <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5" ht="119.1" customHeight="1">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="26"/>
+    </row>
+    <row r="29" spans="1:5" ht="102" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="26"/>
+    </row>
+    <row r="30" spans="1:5" ht="206.25" customHeight="1">
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="102" customHeight="1">
+      <c r="A31" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" ht="132.75" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" ht="272.10000000000002" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" ht="84.95" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="102">
+      <c r="A35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="82.5" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" ht="135.94999999999999" customHeight="1">
+      <c r="A37" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" ht="135.94999999999999" customHeight="1">
+      <c r="A38" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" ht="153" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" ht="255" customHeight="1">
+      <c r="A40" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="249.75" customHeight="1">
+      <c r="A41" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="48.75" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="237.75" customHeight="1">
+      <c r="A43" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="47.25" customHeight="1">
+      <c r="A44" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="30"/>
+    </row>
+    <row r="45" spans="1:5" ht="63.75" customHeight="1">
+      <c r="A45" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="26"/>
+    </row>
+    <row r="46" spans="1:5" ht="80.25" customHeight="1">
+      <c r="A46" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="96" customHeight="1">
+      <c r="A47" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="75.75" customHeight="1">
+      <c r="A48" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="D48" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="66" customHeight="1">
+      <c r="A49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="19" t="s">
+      <c r="D49" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="63" customHeight="1">
+      <c r="A50" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D50" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A51" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="79.5" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="63" customHeight="1">
+      <c r="A53" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="113.25" customHeight="1">
+      <c r="A54" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D54" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="108" customHeight="1">
+      <c r="A55" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="109.5" customHeight="1">
+      <c r="A56" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="113.25" customHeight="1">
+      <c r="A57" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="120.75" customHeight="1">
+      <c r="A58" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="114" customHeight="1">
+      <c r="A59" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="50.25" customHeight="1">
+      <c r="A60" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" ht="187" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" s="19" t="s">
+    </row>
+    <row r="61" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A61" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="33" customHeight="1">
+      <c r="A62" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="64.5" customHeight="1">
+      <c r="A63" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="C63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="37" customFormat="1" ht="164.25" customHeight="1">
+      <c r="A64" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="1:5" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" ht="206.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="272" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="102" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="255" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="249.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="237.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="30"/>
-    </row>
-    <row r="45" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D58" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" s="37" customFormat="1" ht="164.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="41" t="s">
-        <v>146</v>
-      </c>
       <c r="B64" s="42" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D64" s="40"/>
       <c r="E64" s="35"/>
       <c r="F64" s="36"/>
     </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.95" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="37" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="37" customFormat="1" ht="120" customHeight="1">
       <c r="A66" s="41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D66" s="40"/>
       <c r="E66" s="35"/>
       <c r="F66" s="36"/>
     </row>
-    <row r="1048507" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1048507" spans="1:1" ht="15.95" customHeight="1">
       <c r="A1048507" s="5"/>
     </row>
   </sheetData>
